--- a/Excel/TI/Mon_TI_2024_03_12.xlsx
+++ b/Excel/TI/Mon_TI_2024_03_12.xlsx
@@ -636,11 +636,7 @@
           <t>Jayson Tatum</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Questionable</t>
-        </is>
-      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
           <t>F</t>
@@ -652,13 +648,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>39.8</v>
+        <v>36.8</v>
       </c>
       <c r="G2" t="n">
-        <v>42</v>
+        <v>42.2</v>
       </c>
       <c r="H2" t="n">
-        <v>40.5</v>
+        <v>40.4</v>
       </c>
       <c r="I2" t="n">
         <v>11</v>
@@ -670,25 +666,25 @@
         <v>2</v>
       </c>
       <c r="L2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N2" t="n">
+        <v>33</v>
+      </c>
+      <c r="O2" t="n">
         <v>40</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>22</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>39</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>50</v>
-      </c>
-      <c r="R2" t="n">
-        <v>48</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
@@ -774,10 +770,10 @@
         </is>
       </c>
       <c r="AJ2" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="AK2" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AL2" t="n">
         <v>8</v>
@@ -955,10 +951,10 @@
         <v>35.9</v>
       </c>
       <c r="I4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>2</v>
@@ -1078,68 +1074,68 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jaylen Brown</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Questionable</t>
-        </is>
-      </c>
+          <t>Tyrese Maxey</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>39</v>
+        <v>37.8</v>
       </c>
       <c r="G5" t="n">
-        <v>33.9</v>
+        <v>34.7</v>
       </c>
       <c r="H5" t="n">
-        <v>31.5</v>
+        <v>35.9</v>
       </c>
       <c r="I5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
         <v>1</v>
       </c>
-      <c r="K5" t="n">
-        <v>2</v>
-      </c>
       <c r="L5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R5" t="n">
         <v>32</v>
       </c>
-      <c r="O5" t="n">
-        <v>59</v>
-      </c>
-      <c r="P5" t="n">
-        <v>24</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>40</v>
-      </c>
-      <c r="R5" t="n">
-        <v>40</v>
-      </c>
       <c r="S5" t="inlineStr">
         <is>
           <t>@</t>
@@ -1147,7 +1143,7 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
@@ -1156,17 +1152,15 @@
         </is>
       </c>
       <c r="V5" t="n">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="X5" t="n">
+        <v>41</v>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
@@ -1180,58 +1174,54 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
+          <t>MIL</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>CHA</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>MIA</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
           <t>PHX</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>WAS</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>DET</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>MIL</t>
-        </is>
-      </c>
       <c r="AI5" t="inlineStr">
         <is>
           <t>@</t>
         </is>
       </c>
       <c r="AJ5" t="n">
-        <v>-1.8</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>-0.8</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>8</v>
-      </c>
+        <v>0.4</v>
+      </c>
+      <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1382,32 +1372,36 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pascal Siakam</t>
+          <t>Jaylen Brown</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="F7" t="n">
-        <v>28.4</v>
+        <v>37</v>
       </c>
       <c r="G7" t="n">
         <v>33.1</v>
       </c>
       <c r="H7" t="n">
-        <v>34.2</v>
+        <v>31.4</v>
       </c>
       <c r="I7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J7" t="n">
         <v>1</v>
@@ -1416,25 +1410,25 @@
         <v>1</v>
       </c>
       <c r="L7" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N7" t="n">
+        <v>30</v>
+      </c>
+      <c r="O7" t="n">
         <v>32</v>
       </c>
-      <c r="O7" t="n">
-        <v>30</v>
-      </c>
       <c r="P7" t="n">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="Q7" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="R7" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1443,18 +1437,16 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="V7" t="n">
+        <v>18</v>
       </c>
       <c r="W7" t="inlineStr">
         <is>
@@ -1483,17 +1475,17 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
@@ -1503,17 +1495,17 @@
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
@@ -1522,105 +1514,115 @@
         </is>
       </c>
       <c r="AJ7" t="n">
-        <v>-1.4</v>
-      </c>
-      <c r="AK7" t="inlineStr"/>
-      <c r="AL7" t="inlineStr"/>
+        <v>-1.7</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>James Harden</t>
+          <t>Pascal Siakam</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>27.8</v>
+        <v>28.4</v>
       </c>
       <c r="G8" t="n">
-        <v>32.8</v>
+        <v>33.1</v>
       </c>
       <c r="H8" t="n">
-        <v>31.6</v>
+        <v>34.2</v>
       </c>
       <c r="I8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="O8" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="P8" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="Q8" t="n">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="R8" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="V8" t="n">
-        <v>9</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="X8" t="n">
-        <v>25</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="Z8" t="n">
-        <v>15</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1630,12 +1632,12 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
@@ -1645,7 +1647,7 @@
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
@@ -1655,16 +1657,16 @@
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AJ8" t="n">
-        <v>0.4</v>
+        <v>-1.4</v>
       </c>
       <c r="AK8" t="inlineStr"/>
       <c r="AL8" t="inlineStr"/>
@@ -1672,35 +1674,35 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Chet Holmgren</t>
+          <t>James Harden</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>22.4</v>
+        <v>27.8</v>
       </c>
       <c r="G9" t="n">
-        <v>32.3</v>
+        <v>32.8</v>
       </c>
       <c r="H9" t="n">
-        <v>30.6</v>
+        <v>31.6</v>
       </c>
       <c r="I9" t="n">
         <v>12</v>
       </c>
       <c r="J9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K9" t="n">
         <v>3</v>
@@ -1709,23 +1711,23 @@
         <v>3</v>
       </c>
       <c r="M9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N9" t="n">
+        <v>16</v>
+      </c>
+      <c r="O9" t="n">
+        <v>33</v>
+      </c>
+      <c r="P9" t="n">
+        <v>37</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>44</v>
+      </c>
+      <c r="R9" t="n">
         <v>9</v>
       </c>
-      <c r="O9" t="n">
-        <v>8</v>
-      </c>
-      <c r="P9" t="n">
-        <v>47</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>21</v>
-      </c>
-      <c r="R9" t="n">
-        <v>27</v>
-      </c>
       <c r="S9" t="inlineStr">
         <is>
           <t>vs</t>
@@ -1733,47 +1735,41 @@
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="V9" t="n">
+        <v>9</v>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="X9" t="n">
+        <v>25</v>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="Z9" t="n">
+        <v>15</v>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
@@ -1783,7 +1779,7 @@
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
@@ -1793,7 +1789,7 @@
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
@@ -1803,7 +1799,7 @@
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
@@ -1812,7 +1808,7 @@
         </is>
       </c>
       <c r="AJ9" t="n">
-        <v>-0.2</v>
+        <v>0.4</v>
       </c>
       <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="inlineStr"/>
@@ -1820,12 +1816,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Jaren Jackson Jr.</t>
+          <t>Chet Holmgren</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -1836,16 +1832,16 @@
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>32.6</v>
+        <v>22.4</v>
       </c>
       <c r="G10" t="n">
-        <v>31.1</v>
+        <v>32.3</v>
       </c>
       <c r="H10" t="n">
-        <v>30.5</v>
+        <v>30.6</v>
       </c>
       <c r="I10" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J10" t="n">
         <v>2</v>
@@ -1854,29 +1850,25 @@
         <v>2</v>
       </c>
       <c r="L10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N10" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O10" t="n">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="P10" t="n">
-        <v>43</v>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>47</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>21</v>
+      </c>
+      <c r="R10" t="n">
+        <v>27</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
@@ -1885,16 +1877,18 @@
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="V10" t="n">
-        <v>26</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
@@ -1923,27 +1917,27 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
@@ -1953,7 +1947,7 @@
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
@@ -1962,7 +1956,7 @@
         </is>
       </c>
       <c r="AJ10" t="n">
-        <v>-2.3</v>
+        <v>-0.2</v>
       </c>
       <c r="AK10" t="inlineStr"/>
       <c r="AL10" t="inlineStr"/>
@@ -2416,7 +2410,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Day-To-Day</t>
+          <t>Questionable</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -3015,7 +3009,7 @@
         <v>33.5</v>
       </c>
       <c r="I18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J18" t="n">
         <v>1</v>
@@ -3027,26 +3021,28 @@
         <v>2</v>
       </c>
       <c r="M18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="O18" t="n">
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P18" t="n">
         <v>30</v>
       </c>
-      <c r="P18" t="n">
+      <c r="Q18" t="n">
         <v>43</v>
       </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R18" t="n">
-        <v>39</v>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -3144,12 +3140,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Tyrese Maxey</t>
+          <t>Jaren Jackson Jr.</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -3159,82 +3155,80 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
-        <v>37.8</v>
+        <v>32.6</v>
       </c>
       <c r="G19" t="n">
-        <v>34.7</v>
+        <v>31.1</v>
       </c>
       <c r="H19" t="n">
-        <v>35.9</v>
+        <v>30.5</v>
       </c>
       <c r="I19" t="n">
         <v>8</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="N19" t="n">
+        <v>18</v>
+      </c>
+      <c r="O19" t="n">
+        <v>33</v>
+      </c>
+      <c r="P19" t="n">
+        <v>43</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="R19" t="n">
-        <v>32</v>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="V19" t="n">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="X19" t="n">
-        <v>41</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
@@ -3248,12 +3242,12 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
@@ -3263,17 +3257,17 @@
       </c>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="AG19" t="inlineStr">
@@ -3283,16 +3277,16 @@
       </c>
       <c r="AH19" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AJ19" t="n">
-        <v>0.4</v>
+        <v>-2.3</v>
       </c>
       <c r="AK19" t="inlineStr"/>
       <c r="AL19" t="inlineStr"/>
